--- a/pred_ohlcv/54_21/2019-10-30 RDN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 RDN ohlcv.xlsx
@@ -1354,7 +1354,7 @@
         <v>-27238.2434</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-27238.2434</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-27198.2434</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-33846.3214</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-32633.9889</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>3470518.406293537</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>3470518.406293537</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>3469718.406293537</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>4453353.818193537</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>4453353.818193537</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>4437686.230993537</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>4437697.918824225</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>4432698.918824225</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>4430087.918824225</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>4422316.992024224</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>4420250.019924224</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>4410794.338924224</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-30 RDN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 RDN ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-24965.4694</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-27238.2434</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-27198.2434</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-33846.3214</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-32633.9889</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>3470518.406293537</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>3470518.406293537</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>3469718.406293537</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>4447791.067593537</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>4453353.818193537</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>4453353.818193537</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>4437686.230993537</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>4437697.918824225</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>4432697.918824225</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>4430087.918824225</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>4422316.992024224</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>4420250.019924224</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>4420190.617324225</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>4420192.617324225</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
